--- a/ps4/writeup/PerformanceResults.xlsx
+++ b/ps4/writeup/PerformanceResults.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16700" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16700" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Chart2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Chart3" sheetId="4" r:id="rId3"/>
+    <sheet name="Chart4" sheetId="5" r:id="rId4"/>
+    <sheet name="Chart5" sheetId="6" r:id="rId5"/>
+    <sheet name="Chart6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>N</t>
   </si>
@@ -62,7 +66,16 @@
     <t>listImpl Lookup 3</t>
   </si>
   <si>
-    <t>mapImpl LookUp</t>
+    <t>mapImpl LookUp 2</t>
+  </si>
+  <si>
+    <t>mapImpl LookUp 1</t>
+  </si>
+  <si>
+    <t>mapImpl LookUp 3</t>
+  </si>
+  <si>
+    <t>mapImpl Cons</t>
   </si>
 </sst>
 </file>
@@ -200,11 +213,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>log(N)</a:t>
+              <a:t>log(Size</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs Look Up Time for BitsImpl</a:t>
+              <a:t> of List</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Worst Case Look Up Time for BitsImpl</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1259,6 +1280,2143 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>List Size vs Worst Case Look Up Time for ListImpl</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0346666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.118666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.466666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2145750744"/>
+        <c:axId val="2146025448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2145750744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146025448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2146025448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2145750744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Size of List vs Cons Time for ListImpl</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>listImpl Cons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$9:$H$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>202.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>213.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>214.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>247.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>251.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>255.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$9:$I$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00799999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00799999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00799999999992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00799999999992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00399999999991</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00399999999991</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.00799999999992</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.00399999999991</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0200000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.00399999999991</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.00799999999992</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.00399999999991</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0120000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.00399999999991</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.00799999999992</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0120000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.00799999999992</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.00799999999992</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.00399999999991</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.00399999999991</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.00399999999991</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0120000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.00799999999992</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.00399999999991</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.00399999999991</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2136461992"/>
+        <c:axId val="2132971272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2136461992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2132971272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2132971272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2136461992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of List vs Worst Case Look Up Time for MapImpl</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2112852360"/>
+        <c:axId val="-2113273624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2112852360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2113273624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2113273624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2112852360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of List vs Cons Time for MapImpl</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mapImpl Cons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$9:$N$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>202.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>213.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>214.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>247.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>251.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>255.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$9:$O$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00799999999981</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.00800000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0200000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0239999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0239999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.0240000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0119999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0200000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0240000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.0240000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.028</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.0159999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2138952472"/>
+        <c:axId val="2144477720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2138952472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144477720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2144477720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2138952472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -1275,6 +3433,50 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1309,6 +3511,114 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8579556" cy="5842000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8579556" cy="5842000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8579556" cy="5842000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8579556" cy="5842000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -1657,15 +3967,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P136"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:O136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1699,17 +4009,23 @@
       <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>128</v>
       </c>
@@ -1746,17 +4062,24 @@
         <f>AVERAGE(I2:K2)</f>
         <v>3.4666666666666672E-2</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>128</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>0.02</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="R2" s="2">
+        <f>AVERAGE(O2:Q2)</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2">
         <v>256</v>
       </c>
@@ -1793,17 +4116,24 @@
         <f t="shared" ref="L3:L6" si="2">AVERAGE(I3:K3)</f>
         <v>0.06</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>256</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R5" si="3">AVERAGE(O3:Q3)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>512</v>
       </c>
@@ -1840,17 +4170,24 @@
         <f t="shared" si="2"/>
         <v>0.11866666666666666</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>512</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>1024</v>
       </c>
@@ -1887,14 +4224,24 @@
         <f t="shared" si="2"/>
         <v>0.23199999999999998</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>1024</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.124</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>2048</v>
       </c>
@@ -1932,7 +4279,7 @@
         <v>0.46666666666666662</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1954,8 +4301,14 @@
       <c r="I8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>128</v>
       </c>
@@ -1978,8 +4331,14 @@
       <c r="I9">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="N9">
+        <v>128</v>
+      </c>
+      <c r="O9">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>129</v>
       </c>
@@ -1993,7 +4352,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:E73" si="3">AVERAGE(B10:D10)</f>
+        <f t="shared" ref="E10:E73" si="4">AVERAGE(B10:D10)</f>
         <v>6.6666666666766669E-3</v>
       </c>
       <c r="H10">
@@ -2002,8 +4361,14 @@
       <c r="I10">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="N10">
+        <v>129</v>
+      </c>
+      <c r="O10">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>130</v>
       </c>
@@ -2017,7 +4382,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000133332E-3</v>
       </c>
       <c r="H11">
@@ -2026,8 +4391,14 @@
       <c r="I11">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="N11">
+        <v>130</v>
+      </c>
+      <c r="O11">
+        <v>1.20000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>131</v>
       </c>
@@ -2041,7 +4412,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3333333333533337E-3</v>
       </c>
       <c r="H12">
@@ -2050,8 +4421,14 @@
       <c r="I12">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="N12">
+        <v>131</v>
+      </c>
+      <c r="O12">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>132</v>
       </c>
@@ -2065,7 +4442,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666699998E-3</v>
       </c>
       <c r="H13">
@@ -2074,8 +4451,14 @@
       <c r="I13">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="N13">
+        <v>132</v>
+      </c>
+      <c r="O13">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>133</v>
       </c>
@@ -2089,7 +4472,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3333333333433338E-3</v>
       </c>
       <c r="H14">
@@ -2098,8 +4481,14 @@
       <c r="I14">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="N14">
+        <v>133</v>
+      </c>
+      <c r="O14">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>134</v>
       </c>
@@ -2113,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.33333333333E-3</v>
       </c>
       <c r="H15">
@@ -2122,8 +4511,14 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="N15">
+        <v>134</v>
+      </c>
+      <c r="O15">
+        <v>8.0000000000399994E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>135</v>
       </c>
@@ -2137,7 +4532,7 @@
         <v>1.19999999999E-2</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3333333333300001E-2</v>
       </c>
       <c r="H16">
@@ -2146,8 +4541,14 @@
       <c r="I16">
         <v>1.19999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="N16">
+        <v>135</v>
+      </c>
+      <c r="O16">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>136</v>
       </c>
@@ -2161,7 +4562,7 @@
         <v>7.9999999999199999E-3</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9999999999699998E-3</v>
       </c>
       <c r="H17">
@@ -2170,8 +4571,14 @@
       <c r="I17">
         <v>7.9999999999199999E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="N17">
+        <v>136</v>
+      </c>
+      <c r="O17">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>137</v>
       </c>
@@ -2185,7 +4592,7 @@
         <v>7.9999999999199999E-3</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9999999999700016E-3</v>
       </c>
       <c r="H18">
@@ -2194,8 +4601,14 @@
       <c r="I18">
         <v>7.9999999999199999E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="N18">
+        <v>137</v>
+      </c>
+      <c r="O18">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>138</v>
       </c>
@@ -2209,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9999999999966668E-3</v>
       </c>
       <c r="H19">
@@ -2218,8 +4631,14 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="N19">
+        <v>138</v>
+      </c>
+      <c r="O19">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>139</v>
       </c>
@@ -2233,7 +4652,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000133332E-3</v>
       </c>
       <c r="H20">
@@ -2242,8 +4661,14 @@
       <c r="I20">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="N20">
+        <v>139</v>
+      </c>
+      <c r="O20">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>140</v>
       </c>
@@ -2257,7 +4682,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000133332E-3</v>
       </c>
       <c r="H21">
@@ -2266,8 +4691,14 @@
       <c r="I21">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="N21">
+        <v>140</v>
+      </c>
+      <c r="O21">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>141</v>
       </c>
@@ -2281,7 +4712,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3333333333500013E-3</v>
       </c>
       <c r="H22">
@@ -2290,8 +4721,14 @@
       <c r="I22">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="N22">
+        <v>141</v>
+      </c>
+      <c r="O22">
+        <v>1.20000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>142</v>
       </c>
@@ -2305,7 +4742,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6666666666766669E-3</v>
       </c>
       <c r="H23">
@@ -2314,8 +4751,14 @@
       <c r="I23">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="N23">
+        <v>142</v>
+      </c>
+      <c r="O23">
+        <v>8.0000000000399994E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>143</v>
       </c>
@@ -2329,7 +4772,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0000000000100008E-3</v>
       </c>
       <c r="H24">
@@ -2338,8 +4781,14 @@
       <c r="I24">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="N24">
+        <v>143</v>
+      </c>
+      <c r="O24">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>144</v>
       </c>
@@ -2353,7 +4802,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3333333333466662E-3</v>
       </c>
       <c r="H25">
@@ -2362,8 +4811,14 @@
       <c r="I25">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="N25">
+        <v>144</v>
+      </c>
+      <c r="O25">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>145</v>
       </c>
@@ -2377,7 +4832,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3333333333399989E-3</v>
       </c>
       <c r="H26">
@@ -2386,8 +4841,14 @@
       <c r="I26">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="N26">
+        <v>145</v>
+      </c>
+      <c r="O26">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>146</v>
       </c>
@@ -2401,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.33333333333E-3</v>
       </c>
       <c r="H27">
@@ -2410,8 +4871,14 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="N27">
+        <v>146</v>
+      </c>
+      <c r="O27">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>147</v>
       </c>
@@ -2425,7 +4892,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3333333333466662E-3</v>
       </c>
       <c r="H28">
@@ -2434,8 +4901,14 @@
       <c r="I28">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="N28">
+        <v>147</v>
+      </c>
+      <c r="O28">
+        <v>1.20000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>148</v>
       </c>
@@ -2449,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666733331E-3</v>
       </c>
       <c r="H29">
@@ -2458,8 +4931,14 @@
       <c r="I29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="N29">
+        <v>148</v>
+      </c>
+      <c r="O29">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>149</v>
       </c>
@@ -2473,7 +4952,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666699998E-3</v>
       </c>
       <c r="H30">
@@ -2482,8 +4961,14 @@
       <c r="I30">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="N30">
+        <v>149</v>
+      </c>
+      <c r="O30">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>150</v>
       </c>
@@ -2497,7 +4982,7 @@
         <v>7.9999999999199999E-3</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3333333333066662E-3</v>
       </c>
       <c r="H31">
@@ -2506,8 +4991,14 @@
       <c r="I31">
         <v>7.9999999999199999E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="N31">
+        <v>150</v>
+      </c>
+      <c r="O31">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>151</v>
       </c>
@@ -2521,7 +5012,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0666666666679999E-2</v>
       </c>
       <c r="H32">
@@ -2530,8 +5021,14 @@
       <c r="I32">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="N32">
+        <v>151</v>
+      </c>
+      <c r="O32">
+        <v>8.0000000000399994E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>152</v>
       </c>
@@ -2545,7 +5042,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000033334E-3</v>
       </c>
       <c r="H33">
@@ -2554,8 +5051,14 @@
       <c r="I33">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="N33">
+        <v>152</v>
+      </c>
+      <c r="O33">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>153</v>
       </c>
@@ -2569,7 +5072,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3333333333399998E-3</v>
       </c>
       <c r="H34">
@@ -2578,8 +5081,14 @@
       <c r="I34">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="N34">
+        <v>153</v>
+      </c>
+      <c r="O34">
+        <v>1.20000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>154</v>
       </c>
@@ -2593,7 +5102,7 @@
         <v>7.9999999999199999E-3</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.999999999973333E-3</v>
       </c>
       <c r="H35">
@@ -2602,8 +5111,14 @@
       <c r="I35">
         <v>7.9999999999199999E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="N35">
+        <v>154</v>
+      </c>
+      <c r="O35">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>155</v>
       </c>
@@ -2617,7 +5132,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3333333333466672E-3</v>
       </c>
       <c r="H36">
@@ -2626,8 +5141,14 @@
       <c r="I36">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="N36">
+        <v>155</v>
+      </c>
+      <c r="O36">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>156</v>
       </c>
@@ -2641,7 +5162,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3333333333433338E-3</v>
       </c>
       <c r="H37">
@@ -2650,8 +5171,14 @@
       <c r="I37">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="N37">
+        <v>156</v>
+      </c>
+      <c r="O37">
+        <v>1.20000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>157</v>
       </c>
@@ -2665,7 +5192,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3333333333366664E-3</v>
       </c>
       <c r="H38">
@@ -2674,8 +5201,14 @@
       <c r="I38">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="N38">
+        <v>157</v>
+      </c>
+      <c r="O38">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>158</v>
       </c>
@@ -2689,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H39">
@@ -2698,8 +5231,14 @@
       <c r="I39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="N39">
+        <v>158</v>
+      </c>
+      <c r="O39">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>159</v>
       </c>
@@ -2713,7 +5252,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0666666666683334E-2</v>
       </c>
       <c r="H40">
@@ -2722,8 +5261,14 @@
       <c r="I40">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="N40">
+        <v>159</v>
+      </c>
+      <c r="O40">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>160</v>
       </c>
@@ -2737,7 +5282,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6666666666866659E-3</v>
       </c>
       <c r="H41">
@@ -2746,8 +5291,14 @@
       <c r="I41">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="N41">
+        <v>160</v>
+      </c>
+      <c r="O41">
+        <v>7.9999999998099994E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>161</v>
       </c>
@@ -2761,7 +5312,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666733331E-3</v>
       </c>
       <c r="H42">
@@ -2770,8 +5321,14 @@
       <c r="I42">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="N42">
+        <v>161</v>
+      </c>
+      <c r="O42">
+        <v>8.0000000000399994E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>162</v>
       </c>
@@ -2785,7 +5342,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0000000000100008E-3</v>
       </c>
       <c r="H43">
@@ -2794,8 +5351,14 @@
       <c r="I43">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="N43">
+        <v>162</v>
+      </c>
+      <c r="O43">
+        <v>8.0000000000399994E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>163</v>
       </c>
@@ -2809,7 +5372,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0000000000166657E-3</v>
       </c>
       <c r="H44">
@@ -2818,8 +5381,14 @@
       <c r="I44">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="N44">
+        <v>163</v>
+      </c>
+      <c r="O44">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>164</v>
       </c>
@@ -2833,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666633337E-3</v>
       </c>
       <c r="H45">
@@ -2842,8 +5411,14 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="N45">
+        <v>164</v>
+      </c>
+      <c r="O45">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>165</v>
       </c>
@@ -2857,7 +5432,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3333333333366664E-3</v>
       </c>
       <c r="H46">
@@ -2866,8 +5441,14 @@
       <c r="I46">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="N46">
+        <v>165</v>
+      </c>
+      <c r="O46">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>166</v>
       </c>
@@ -2881,7 +5462,7 @@
         <v>3.99999999991E-3</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.333333333306667E-3</v>
       </c>
       <c r="H47">
@@ -2890,8 +5471,14 @@
       <c r="I47">
         <v>3.99999999991E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="N47">
+        <v>166</v>
+      </c>
+      <c r="O47">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>167</v>
       </c>
@@ -2905,7 +5492,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4666666666666666E-2</v>
       </c>
       <c r="H48">
@@ -2914,8 +5501,14 @@
       <c r="I48">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="N48">
+        <v>167</v>
+      </c>
+      <c r="O48">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>168</v>
       </c>
@@ -2929,7 +5522,7 @@
         <v>3.99999999991E-3</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666433337E-3</v>
       </c>
       <c r="H49">
@@ -2938,8 +5531,14 @@
       <c r="I49">
         <v>3.99999999991E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="N49">
+        <v>168</v>
+      </c>
+      <c r="O49">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>169</v>
       </c>
@@ -2953,7 +5552,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6666666666866659E-3</v>
       </c>
       <c r="H50">
@@ -2962,8 +5561,14 @@
       <c r="I50">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="N50">
+        <v>169</v>
+      </c>
+      <c r="O50">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>170</v>
       </c>
@@ -2977,7 +5582,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000066666E-3</v>
       </c>
       <c r="H51">
@@ -2986,8 +5591,14 @@
       <c r="I51">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="N51">
+        <v>170</v>
+      </c>
+      <c r="O51">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>171</v>
       </c>
@@ -3001,7 +5612,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0666666666679999E-2</v>
       </c>
       <c r="H52">
@@ -3010,8 +5621,14 @@
       <c r="I52">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="N52">
+        <v>171</v>
+      </c>
+      <c r="O52">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>172</v>
       </c>
@@ -3025,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3333333333366664E-3</v>
       </c>
       <c r="H53">
@@ -3034,8 +5651,14 @@
       <c r="I53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="N53">
+        <v>172</v>
+      </c>
+      <c r="O53">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>173</v>
       </c>
@@ -3049,7 +5672,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6666666666733336E-3</v>
       </c>
       <c r="H54">
@@ -3058,8 +5681,14 @@
       <c r="I54">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="N54">
+        <v>173</v>
+      </c>
+      <c r="O54">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>174</v>
       </c>
@@ -3073,7 +5702,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666799997E-3</v>
       </c>
       <c r="H55">
@@ -3082,8 +5711,14 @@
       <c r="I55">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="N55">
+        <v>174</v>
+      </c>
+      <c r="O55">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>175</v>
       </c>
@@ -3097,7 +5732,7 @@
         <v>1.60000000001E-2</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8666666666699999E-2</v>
       </c>
       <c r="H56">
@@ -3106,8 +5741,14 @@
       <c r="I56">
         <v>1.60000000001E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="N56">
+        <v>175</v>
+      </c>
+      <c r="O56">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>176</v>
       </c>
@@ -3121,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3333333333333333E-3</v>
       </c>
       <c r="H57">
@@ -3130,8 +5771,14 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="N57">
+        <v>176</v>
+      </c>
+      <c r="O57">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>177</v>
       </c>
@@ -3145,7 +5792,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0000000000066667E-3</v>
       </c>
       <c r="H58">
@@ -3154,8 +5801,14 @@
       <c r="I58">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="N58">
+        <v>177</v>
+      </c>
+      <c r="O58">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>178</v>
       </c>
@@ -3169,7 +5822,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666733331E-3</v>
       </c>
       <c r="H59">
@@ -3178,8 +5831,14 @@
       <c r="I59">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="N59">
+        <v>178</v>
+      </c>
+      <c r="O59">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>179</v>
       </c>
@@ -3193,7 +5852,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6666666666800002E-3</v>
       </c>
       <c r="H60">
@@ -3202,8 +5861,14 @@
       <c r="I60">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="N60">
+        <v>179</v>
+      </c>
+      <c r="O60">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>180</v>
       </c>
@@ -3217,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3333333333333333E-3</v>
       </c>
       <c r="H61">
@@ -3226,8 +5891,14 @@
       <c r="I61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="N61">
+        <v>180</v>
+      </c>
+      <c r="O61">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>181</v>
       </c>
@@ -3241,7 +5912,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666733331E-3</v>
       </c>
       <c r="H62">
@@ -3250,8 +5921,14 @@
       <c r="I62">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="N62">
+        <v>181</v>
+      </c>
+      <c r="O62">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>182</v>
       </c>
@@ -3265,7 +5942,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6666666666800002E-3</v>
       </c>
       <c r="H63">
@@ -3274,8 +5951,14 @@
       <c r="I63">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="N63">
+        <v>182</v>
+      </c>
+      <c r="O63">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>183</v>
       </c>
@@ -3289,7 +5972,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0666666666660002E-2</v>
       </c>
       <c r="H64">
@@ -3298,8 +5981,14 @@
       <c r="I64">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="N64">
+        <v>183</v>
+      </c>
+      <c r="O64">
+        <v>1.20000000002E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>184</v>
       </c>
@@ -3313,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H65">
@@ -3322,8 +6011,14 @@
       <c r="I65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="N65">
+        <v>184</v>
+      </c>
+      <c r="O65">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>185</v>
       </c>
@@ -3337,7 +6032,7 @@
         <v>7.9999999999199999E-3</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3333333333066662E-3</v>
       </c>
       <c r="H66">
@@ -3346,8 +6041,14 @@
       <c r="I66">
         <v>7.9999999999199999E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="N66">
+        <v>185</v>
+      </c>
+      <c r="O66">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>186</v>
       </c>
@@ -3361,7 +6062,7 @@
         <v>3.99999999991E-3</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.999999999973334E-3</v>
       </c>
       <c r="H67">
@@ -3370,8 +6071,14 @@
       <c r="I67">
         <v>3.99999999991E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="N67">
+        <v>186</v>
+      </c>
+      <c r="O67">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>187</v>
       </c>
@@ -3385,7 +6092,7 @@
         <v>1.60000000001E-2</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0666666666706667E-2</v>
       </c>
       <c r="H68">
@@ -3394,8 +6101,14 @@
       <c r="I68">
         <v>1.60000000001E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="N68">
+        <v>187</v>
+      </c>
+      <c r="O68">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>188</v>
       </c>
@@ -3409,7 +6122,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666799997E-3</v>
       </c>
       <c r="H69">
@@ -3418,8 +6131,14 @@
       <c r="I69">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="N69">
+        <v>188</v>
+      </c>
+      <c r="O69">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>189</v>
       </c>
@@ -3433,7 +6152,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000099999E-3</v>
       </c>
       <c r="H70">
@@ -3442,8 +6161,14 @@
       <c r="I70">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="N70">
+        <v>189</v>
+      </c>
+      <c r="O70">
+        <v>8.0000000000399994E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>190</v>
       </c>
@@ -3457,7 +6182,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666733331E-3</v>
       </c>
       <c r="H71">
@@ -3466,8 +6191,14 @@
       <c r="I71">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="N71">
+        <v>190</v>
+      </c>
+      <c r="O71">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>191</v>
       </c>
@@ -3481,7 +6212,7 @@
         <v>2.00000000001E-2</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0000000000033335E-2</v>
       </c>
       <c r="H72">
@@ -3490,8 +6221,14 @@
       <c r="I72">
         <v>2.00000000001E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="N72">
+        <v>191</v>
+      </c>
+      <c r="O72">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>192</v>
       </c>
@@ -3505,7 +6242,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3333333333399997E-3</v>
       </c>
       <c r="H73">
@@ -3514,8 +6251,14 @@
       <c r="I73">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="N73">
+        <v>192</v>
+      </c>
+      <c r="O73">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>193</v>
       </c>
@@ -3529,7 +6272,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74:E136" si="4">AVERAGE(B74:D74)</f>
+        <f t="shared" ref="E74:E136" si="5">AVERAGE(B74:D74)</f>
         <v>5.3333333333466662E-3</v>
       </c>
       <c r="H74">
@@ -3538,8 +6281,14 @@
       <c r="I74">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="N74">
+        <v>193</v>
+      </c>
+      <c r="O74">
+        <v>2.00000000002E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>194</v>
       </c>
@@ -3553,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333E-3</v>
       </c>
       <c r="H75">
@@ -3562,8 +6311,14 @@
       <c r="I75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="N75">
+        <v>194</v>
+      </c>
+      <c r="O75">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>195</v>
       </c>
@@ -3577,7 +6332,7 @@
         <v>1.19999999999E-2</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999666665E-3</v>
       </c>
       <c r="H76">
@@ -3586,8 +6341,14 @@
       <c r="I76">
         <v>1.19999999999E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="N76">
+        <v>195</v>
+      </c>
+      <c r="O76">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>196</v>
       </c>
@@ -3601,7 +6362,7 @@
         <v>3.99999999991E-3</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666366663E-3</v>
       </c>
       <c r="H77">
@@ -3610,8 +6371,14 @@
       <c r="I77">
         <v>3.99999999991E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="N77">
+        <v>196</v>
+      </c>
+      <c r="O77">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>197</v>
       </c>
@@ -3625,7 +6392,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999933335E-3</v>
       </c>
       <c r="H78">
@@ -3634,8 +6401,14 @@
       <c r="I78">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="N78">
+        <v>197</v>
+      </c>
+      <c r="O78">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>198</v>
       </c>
@@ -3649,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333399998E-3</v>
       </c>
       <c r="H79">
@@ -3658,8 +6431,14 @@
       <c r="I79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="N79">
+        <v>198</v>
+      </c>
+      <c r="O79">
+        <v>2.3999999999900001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>199</v>
       </c>
@@ -3673,7 +6452,7 @@
         <v>7.9999999999199999E-3</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.066666666664E-2</v>
       </c>
       <c r="H80">
@@ -3682,8 +6461,14 @@
       <c r="I80">
         <v>7.9999999999199999E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="N80">
+        <v>199</v>
+      </c>
+      <c r="O80">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>200</v>
       </c>
@@ -3697,7 +6482,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666799997E-3</v>
       </c>
       <c r="H81">
@@ -3706,8 +6491,14 @@
       <c r="I81">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="N81">
+        <v>200</v>
+      </c>
+      <c r="O81">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>201</v>
       </c>
@@ -3721,7 +6512,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3333333333499995E-3</v>
       </c>
       <c r="H82">
@@ -3730,8 +6521,14 @@
       <c r="I82">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="N82">
+        <v>201</v>
+      </c>
+      <c r="O82">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>202</v>
       </c>
@@ -3745,7 +6542,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666799997E-3</v>
       </c>
       <c r="H83">
@@ -3754,8 +6551,14 @@
       <c r="I83">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="N83">
+        <v>202</v>
+      </c>
+      <c r="O83">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>203</v>
       </c>
@@ -3769,7 +6572,7 @@
         <v>3.99999999991E-3</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.9999999999566668E-3</v>
       </c>
       <c r="H84">
@@ -3778,8 +6581,14 @@
       <c r="I84">
         <v>3.99999999991E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="N84">
+        <v>203</v>
+      </c>
+      <c r="O84">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>204</v>
       </c>
@@ -3793,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.33333333333E-3</v>
       </c>
       <c r="H85">
@@ -3802,8 +6611,14 @@
       <c r="I85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="N85">
+        <v>204</v>
+      </c>
+      <c r="O85">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>205</v>
       </c>
@@ -3817,7 +6632,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H86">
@@ -3826,8 +6641,14 @@
       <c r="I86">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="N86">
+        <v>205</v>
+      </c>
+      <c r="O86">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>206</v>
       </c>
@@ -3841,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333E-3</v>
       </c>
       <c r="H87">
@@ -3850,8 +6671,14 @@
       <c r="I87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="N87">
+        <v>206</v>
+      </c>
+      <c r="O87">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>207</v>
       </c>
@@ -3865,7 +6692,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2000000000013333E-2</v>
       </c>
       <c r="H88">
@@ -3874,8 +6701,14 @@
       <c r="I88">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="N88">
+        <v>207</v>
+      </c>
+      <c r="O88">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>208</v>
       </c>
@@ -3889,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666533335E-3</v>
       </c>
       <c r="H89">
@@ -3898,8 +6731,14 @@
       <c r="I89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="N89">
+        <v>208</v>
+      </c>
+      <c r="O89">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>209</v>
       </c>
@@ -3913,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666733331E-3</v>
       </c>
       <c r="H90">
@@ -3922,8 +6761,14 @@
       <c r="I90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="N90">
+        <v>209</v>
+      </c>
+      <c r="O90">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>210</v>
       </c>
@@ -3937,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.66666666666E-3</v>
       </c>
       <c r="H91">
@@ -3946,8 +6791,14 @@
       <c r="I91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="N91">
+        <v>210</v>
+      </c>
+      <c r="O91">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>211</v>
       </c>
@@ -3961,7 +6812,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2000000000013333E-2</v>
       </c>
       <c r="H92">
@@ -3970,8 +6821,14 @@
       <c r="I92">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="N92">
+        <v>211</v>
+      </c>
+      <c r="O92">
+        <v>1.20000000002E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>212</v>
       </c>
@@ -3985,7 +6842,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3333333333333332E-3</v>
       </c>
       <c r="H93">
@@ -3994,8 +6851,14 @@
       <c r="I93">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="N93">
+        <v>212</v>
+      </c>
+      <c r="O93">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>213</v>
       </c>
@@ -4009,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H94">
@@ -4018,8 +6881,14 @@
       <c r="I94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="N94">
+        <v>213</v>
+      </c>
+      <c r="O94">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>214</v>
       </c>
@@ -4033,7 +6902,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="H95">
@@ -4042,8 +6911,14 @@
       <c r="I95">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="N95">
+        <v>214</v>
+      </c>
+      <c r="O95">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>215</v>
       </c>
@@ -4057,7 +6932,7 @@
         <v>1.20000000001E-2</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2000000000026668E-2</v>
       </c>
       <c r="H96">
@@ -4066,8 +6941,14 @@
       <c r="I96">
         <v>1.20000000001E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="N96">
+        <v>215</v>
+      </c>
+      <c r="O96">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>216</v>
       </c>
@@ -4081,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000066666E-3</v>
       </c>
       <c r="H97">
@@ -4090,8 +6971,14 @@
       <c r="I97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="N97">
+        <v>216</v>
+      </c>
+      <c r="O97">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>217</v>
       </c>
@@ -4105,7 +6992,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6666666666733336E-3</v>
       </c>
       <c r="H98">
@@ -4114,8 +7001,14 @@
       <c r="I98">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="N98">
+        <v>217</v>
+      </c>
+      <c r="O98">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>218</v>
       </c>
@@ -4129,7 +7022,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3333333333399997E-3</v>
       </c>
       <c r="H99">
@@ -4138,8 +7031,14 @@
       <c r="I99">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="N99">
+        <v>218</v>
+      </c>
+      <c r="O99">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>219</v>
       </c>
@@ -4153,7 +7052,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6666666666733336E-3</v>
       </c>
       <c r="H100">
@@ -4162,8 +7061,14 @@
       <c r="I100">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="N100">
+        <v>219</v>
+      </c>
+      <c r="O100">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>220</v>
       </c>
@@ -4177,7 +7082,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3333333333599993E-3</v>
       </c>
       <c r="H101">
@@ -4186,8 +7091,14 @@
       <c r="I101">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="N101">
+        <v>220</v>
+      </c>
+      <c r="O101">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102">
         <v>221</v>
       </c>
@@ -4201,7 +7112,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000099999E-3</v>
       </c>
       <c r="H102">
@@ -4210,8 +7121,14 @@
       <c r="I102">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="N102">
+        <v>221</v>
+      </c>
+      <c r="O102">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103">
         <v>222</v>
       </c>
@@ -4225,7 +7142,7 @@
         <v>3.99999999991E-3</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6666666666433325E-3</v>
       </c>
       <c r="H103">
@@ -4234,8 +7151,14 @@
       <c r="I103">
         <v>3.99999999991E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="N103">
+        <v>222</v>
+      </c>
+      <c r="O103">
+        <v>1.20000000002E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104">
         <v>223</v>
       </c>
@@ -4249,7 +7172,7 @@
         <v>0.02</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7333333333333336E-2</v>
       </c>
       <c r="H104">
@@ -4258,8 +7181,14 @@
       <c r="I104">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="N104">
+        <v>223</v>
+      </c>
+      <c r="O104">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105">
         <v>224</v>
       </c>
@@ -4273,7 +7202,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3333333333599993E-3</v>
       </c>
       <c r="H105">
@@ -4282,8 +7211,14 @@
       <c r="I105">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="N105">
+        <v>224</v>
+      </c>
+      <c r="O105">
+        <v>2.3999999999900001E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106">
         <v>225</v>
       </c>
@@ -4297,7 +7232,7 @@
         <v>7.9999999999199999E-3</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3333333333000004E-3</v>
       </c>
       <c r="H106">
@@ -4306,8 +7241,14 @@
       <c r="I106">
         <v>7.9999999999199999E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="N106">
+        <v>225</v>
+      </c>
+      <c r="O106">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107">
         <v>226</v>
       </c>
@@ -4321,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.33333333333E-3</v>
       </c>
       <c r="H107">
@@ -4330,8 +7271,14 @@
       <c r="I107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="N107">
+        <v>226</v>
+      </c>
+      <c r="O107">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108">
         <v>227</v>
       </c>
@@ -4345,7 +7292,7 @@
         <v>1.20000000001E-2</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.3333333333733334E-3</v>
       </c>
       <c r="H108">
@@ -4354,8 +7301,14 @@
       <c r="I108">
         <v>1.20000000001E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="N108">
+        <v>227</v>
+      </c>
+      <c r="O108">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109">
         <v>228</v>
       </c>
@@ -4369,7 +7322,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666699998E-3</v>
       </c>
       <c r="H109">
@@ -4378,8 +7331,14 @@
       <c r="I109">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="N109">
+        <v>228</v>
+      </c>
+      <c r="O109">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110">
         <v>229</v>
       </c>
@@ -4393,7 +7352,7 @@
         <v>7.9999999999199999E-3</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.9999999999700016E-3</v>
       </c>
       <c r="H110">
@@ -4402,8 +7361,14 @@
       <c r="I110">
         <v>7.9999999999199999E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="N110">
+        <v>229</v>
+      </c>
+      <c r="O110">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111">
         <v>230</v>
       </c>
@@ -4417,7 +7382,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0000000000100008E-3</v>
       </c>
       <c r="H111">
@@ -4426,8 +7391,14 @@
       <c r="I111">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="N111">
+        <v>230</v>
+      </c>
+      <c r="O111">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112">
         <v>231</v>
       </c>
@@ -4441,7 +7412,7 @@
         <v>7.9999999999199999E-3</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333306668E-2</v>
       </c>
       <c r="H112">
@@ -4450,8 +7421,14 @@
       <c r="I112">
         <v>7.9999999999199999E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="N112">
+        <v>231</v>
+      </c>
+      <c r="O112">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>232</v>
       </c>
@@ -4465,7 +7442,7 @@
         <v>3.99999999991E-3</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666333334E-3</v>
       </c>
       <c r="H113">
@@ -4474,8 +7451,14 @@
       <c r="I113">
         <v>3.99999999991E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="N113">
+        <v>232</v>
+      </c>
+      <c r="O113">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>233</v>
       </c>
@@ -4489,7 +7472,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666699998E-3</v>
       </c>
       <c r="H114">
@@ -4498,8 +7481,14 @@
       <c r="I114">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="N114">
+        <v>233</v>
+      </c>
+      <c r="O114">
+        <v>2.40000000001E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>234</v>
       </c>
@@ -4513,7 +7502,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333399998E-3</v>
       </c>
       <c r="H115">
@@ -4522,8 +7511,14 @@
       <c r="I115">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="N115">
+        <v>234</v>
+      </c>
+      <c r="O115">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>235</v>
       </c>
@@ -4537,7 +7532,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000099999E-3</v>
       </c>
       <c r="H116">
@@ -4546,8 +7541,14 @@
       <c r="I116">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="N116">
+        <v>235</v>
+      </c>
+      <c r="O116">
+        <v>1.19999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>236</v>
       </c>
@@ -4561,7 +7562,7 @@
         <v>3.99999999991E-3</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333033334E-3</v>
       </c>
       <c r="H117">
@@ -4570,8 +7571,14 @@
       <c r="I117">
         <v>3.99999999991E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="N117">
+        <v>236</v>
+      </c>
+      <c r="O117">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>237</v>
       </c>
@@ -4585,7 +7592,7 @@
         <v>3.99999999991E-3</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999733339E-3</v>
       </c>
       <c r="H118">
@@ -4594,8 +7601,14 @@
       <c r="I118">
         <v>3.99999999991E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="N118">
+        <v>237</v>
+      </c>
+      <c r="O118">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>238</v>
       </c>
@@ -4609,7 +7622,7 @@
         <v>1.19999999999E-2</v>
       </c>
       <c r="E119" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6666666666366668E-3</v>
       </c>
       <c r="H119">
@@ -4618,8 +7631,14 @@
       <c r="I119">
         <v>1.19999999999E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="N119">
+        <v>238</v>
+      </c>
+      <c r="O119">
+        <v>1.20000000002E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120">
         <v>239</v>
       </c>
@@ -4633,7 +7652,7 @@
         <v>1.20000000001E-2</v>
       </c>
       <c r="E120" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6000000000033335E-2</v>
       </c>
       <c r="H120">
@@ -4642,8 +7661,14 @@
       <c r="I120">
         <v>1.20000000001E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="N120">
+        <v>239</v>
+      </c>
+      <c r="O120">
+        <v>2.00000000002E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121">
         <v>240</v>
       </c>
@@ -4657,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333399998E-3</v>
       </c>
       <c r="H121">
@@ -4666,8 +7691,14 @@
       <c r="I121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="N121">
+        <v>240</v>
+      </c>
+      <c r="O121">
+        <v>2.40000000001E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122">
         <v>241</v>
       </c>
@@ -4681,7 +7712,7 @@
         <v>7.9999999999199999E-3</v>
       </c>
       <c r="E122" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.9999999999700016E-3</v>
       </c>
       <c r="H122">
@@ -4690,8 +7721,14 @@
       <c r="I122">
         <v>7.9999999999199999E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="N122">
+        <v>241</v>
+      </c>
+      <c r="O122">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123">
         <v>242</v>
       </c>
@@ -4705,7 +7742,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E123" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666799997E-3</v>
       </c>
       <c r="H123">
@@ -4714,8 +7751,14 @@
       <c r="I123">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="N123">
+        <v>242</v>
+      </c>
+      <c r="O123">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124">
         <v>243</v>
       </c>
@@ -4729,7 +7772,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E124" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.66666666669E-3</v>
       </c>
       <c r="H124">
@@ -4738,8 +7781,14 @@
       <c r="I124">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="N124">
+        <v>243</v>
+      </c>
+      <c r="O124">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125">
         <v>244</v>
       </c>
@@ -4753,7 +7802,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333399998E-3</v>
       </c>
       <c r="H125">
@@ -4762,8 +7811,14 @@
       <c r="I125">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="N125">
+        <v>244</v>
+      </c>
+      <c r="O125">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126">
         <v>245</v>
       </c>
@@ -4777,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H126">
@@ -4786,8 +7841,14 @@
       <c r="I126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="N126">
+        <v>245</v>
+      </c>
+      <c r="O126">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127">
         <v>246</v>
       </c>
@@ -4801,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666699998E-3</v>
       </c>
       <c r="H127">
@@ -4810,8 +7871,14 @@
       <c r="I127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="N127">
+        <v>246</v>
+      </c>
+      <c r="O127">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128">
         <v>247</v>
       </c>
@@ -4825,7 +7892,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E128" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.3333333333500013E-3</v>
       </c>
       <c r="H128">
@@ -4834,8 +7901,14 @@
       <c r="I128">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="N128">
+        <v>247</v>
+      </c>
+      <c r="O128">
+        <v>1.60000000001E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129">
         <v>248</v>
       </c>
@@ -4849,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.33333333333E-3</v>
       </c>
       <c r="H129">
@@ -4858,8 +7931,14 @@
       <c r="I129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="N129">
+        <v>248</v>
+      </c>
+      <c r="O129">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130">
         <v>249</v>
       </c>
@@ -4873,7 +7952,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E130" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6666666666900009E-3</v>
       </c>
       <c r="H130">
@@ -4882,8 +7961,14 @@
       <c r="I130">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="N130">
+        <v>249</v>
+      </c>
+      <c r="O130">
+        <v>2.40000000001E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131">
         <v>250</v>
       </c>
@@ -4897,7 +7982,7 @@
         <v>3.99999999991E-3</v>
       </c>
       <c r="E131" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.999999999973333E-3</v>
       </c>
       <c r="H131">
@@ -4906,8 +7991,14 @@
       <c r="I131">
         <v>3.99999999991E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="N131">
+        <v>250</v>
+      </c>
+      <c r="O131">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132">
         <v>251</v>
       </c>
@@ -4921,7 +8012,7 @@
         <v>3.99999999991E-3</v>
       </c>
       <c r="E132" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999733339E-3</v>
       </c>
       <c r="H132">
@@ -4930,8 +8021,14 @@
       <c r="I132">
         <v>3.99999999991E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="N132">
+        <v>251</v>
+      </c>
+      <c r="O132">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133">
         <v>252</v>
       </c>
@@ -4945,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999900003E-3</v>
       </c>
       <c r="H133">
@@ -4954,8 +8051,14 @@
       <c r="I133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="N133">
+        <v>252</v>
+      </c>
+      <c r="O133">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134">
         <v>253</v>
       </c>
@@ -4969,7 +8072,7 @@
         <v>8.0000000000399994E-3</v>
       </c>
       <c r="E134" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.3333333333399989E-3</v>
       </c>
       <c r="H134">
@@ -4978,8 +8081,14 @@
       <c r="I134">
         <v>8.0000000000399994E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="N134">
+        <v>253</v>
+      </c>
+      <c r="O134">
+        <v>1.5999999999800001E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135">
         <v>254</v>
       </c>
@@ -4993,7 +8102,7 @@
         <v>4.0000000000199997E-3</v>
       </c>
       <c r="E135" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666699998E-3</v>
       </c>
       <c r="H135">
@@ -5002,8 +8111,14 @@
       <c r="I135">
         <v>4.0000000000199997E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="N135">
+        <v>254</v>
+      </c>
+      <c r="O135">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136">
         <v>255</v>
       </c>
@@ -5017,13 +8132,19 @@
         <v>0.02</v>
       </c>
       <c r="E136" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1333333333333333E-2</v>
       </c>
       <c r="H136">
         <v>255</v>
       </c>
       <c r="I136">
+        <v>0.02</v>
+      </c>
+      <c r="N136">
+        <v>255</v>
+      </c>
+      <c r="O136">
         <v>0.02</v>
       </c>
     </row>

--- a/ps4/writeup/PerformanceResults.xlsx
+++ b/ps4/writeup/PerformanceResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16700" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16700" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +105,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3424,6 +3430,7 @@
     <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -3435,6 +3442,7 @@
     <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -3446,6 +3454,7 @@
     <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -3457,6 +3466,7 @@
     <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -3468,6 +3478,7 @@
     <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -3476,9 +3487,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -3487,7 +3499,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8579556" cy="5842000"/>
+    <xdr:ext cx="8570148" cy="5832593"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3622,7 +3634,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8579556" cy="5842000"/>
+    <xdr:ext cx="8570148" cy="5832593"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3969,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:O136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8149,8 +8161,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
